--- a/ofc/estimates/बद्री पुडासैनीको घर जाने बाटो ढलान/V_बद्री पुडासैनीको घर जाने बाटो ढलान.xlsx
+++ b/ofc/estimates/बद्री पुडासैनीको घर जाने बाटो ढलान/V_बद्री पुडासैनीको घर जाने बाटो ढलान.xlsx
@@ -9,24 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="estimate" sheetId="19" r:id="rId1"/>
     <sheet name="WCR" sheetId="6" r:id="rId2"/>
     <sheet name="V" sheetId="20" r:id="rId3"/>
+    <sheet name="M" sheetId="21" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="0">#REF!</definedName>
+    <definedName name="description_124" localSheetId="3">#REF!</definedName>
     <definedName name="description_124" localSheetId="2">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_247">[1]Abstract!$B$22</definedName>
@@ -43,8 +45,10 @@
     <definedName name="description_781">[6]Abstract!$B$299</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">estimate!$A$1:$K$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">V!$A$1:$K$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">M!$A$1:$K$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">V!$A$1:$K$72</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">estimate!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">M!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
   </definedNames>
@@ -66,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="76">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -182,12 +186,6 @@
     <t xml:space="preserve">Work Finished:           </t>
   </si>
   <si>
-    <t xml:space="preserve">F.Y:2079/80                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date:2079/06/13       </t>
-  </si>
-  <si>
     <t>VAT calculation</t>
   </si>
   <si>
@@ -282,6 +280,24 @@
   </si>
   <si>
     <t>Date:2082/01/11</t>
+  </si>
+  <si>
+    <t>-as of RCC quantity</t>
+  </si>
+  <si>
+    <t>Area of scalene triangle</t>
+  </si>
+  <si>
+    <t>Area (m2)</t>
+  </si>
+  <si>
+    <t>-for masonary wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.Y:2081/82                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:2082/01/12       </t>
   </si>
 </sst>
 </file>
@@ -456,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -537,9 +553,6 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -614,14 +627,51 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -650,36 +700,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1358,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,116 +1401,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="A6" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
+      <c r="H6" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="H7" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1522,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="138" x14ac:dyDescent="0.3">
@@ -1530,48 +1555,48 @@
         <v>1</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
+        <v>49</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
-      <c r="B10" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="37">
-        <v>1</v>
-      </c>
-      <c r="D10" s="39">
+      <c r="B10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
         <v>6.5</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="38">
         <v>5</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <v>0.15</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="39">
         <f>PRODUCT(C10:F10)</f>
         <v>4.875</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="21"/>
       <c r="M10" s="25"/>
       <c r="N10" s="1"/>
@@ -1583,28 +1608,28 @@
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="37">
-        <v>1</v>
-      </c>
-      <c r="D11" s="39">
+      <c r="B11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
         <v>3</v>
       </c>
-      <c r="E11" s="39">
-        <v>1</v>
-      </c>
-      <c r="F11" s="39">
-        <v>1</v>
-      </c>
-      <c r="G11" s="40">
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39">
         <f>PRODUCT(C11:F11)</f>
         <v>3</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="21"/>
       <c r="M11" s="25"/>
       <c r="N11" s="1"/>
@@ -1616,8 +1641,8 @@
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
-      <c r="B12" s="38" t="s">
-        <v>42</v>
+      <c r="B12" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
@@ -1628,12 +1653,12 @@
         <v>7.875</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="23">
         <v>64.63</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="41">
         <f>G12*I12</f>
         <v>508.96124999999995</v>
       </c>
@@ -1648,8 +1673,8 @@
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="38" t="s">
-        <v>40</v>
+      <c r="B13" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
@@ -1658,7 +1683,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="42">
+      <c r="J13" s="41">
         <f>0.13*G12*19284/360</f>
         <v>54.838874999999994</v>
       </c>
@@ -1673,7 +1698,7 @@
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
@@ -1681,7 +1706,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="22"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="42"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="21"/>
       <c r="M14" s="25"/>
       <c r="N14" s="1"/>
@@ -1696,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
@@ -1705,47 +1730,47 @@
       <c r="G15" s="23"/>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="21"/>
       <c r="M15" s="25"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
+      <c r="O15" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="38" t="str">
+      <c r="B16" s="37" t="str">
         <f>B21</f>
         <v>-For stone masonary</v>
       </c>
-      <c r="C16" s="48">
-        <v>1</v>
-      </c>
-      <c r="D16" s="39">
+      <c r="C16" s="47">
+        <v>1</v>
+      </c>
+      <c r="D16" s="38">
         <f>D10</f>
         <v>6.5</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="38">
         <f>E10</f>
         <v>5</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="38">
         <v>0.15</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <f>PRODUCT(C16:F16)</f>
         <v>4.875</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="21"/>
       <c r="M16" s="25"/>
       <c r="N16" s="1"/>
@@ -1756,67 +1781,67 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="34">
+      <c r="A17" s="40"/>
+      <c r="B17" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="33">
         <f>SUM(G16)</f>
         <v>4.875</v>
       </c>
-      <c r="H17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="34">
+      <c r="H17" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="33">
         <v>4434.5200000000004</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="44">
         <f>G17*I17</f>
         <v>21618.285000000003</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="46">
+      <c r="A18" s="40"/>
+      <c r="B18" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="45">
         <f>0.13*G17*(14817.6/5)</f>
         <v>1878.1308000000001</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="37"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>3</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
@@ -1825,7 +1850,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="42"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="21"/>
       <c r="M20" s="25"/>
       <c r="N20" s="1"/>
@@ -1837,29 +1862,29 @@
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
-      <c r="B21" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="48">
-        <v>1</v>
-      </c>
-      <c r="D21" s="39">
+      <c r="B21" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="47">
+        <v>1</v>
+      </c>
+      <c r="D21" s="38">
         <f>D27</f>
         <v>15</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="38">
         <v>0.45</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <v>0.05</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="39">
         <f>PRODUCT(C21:F21)</f>
         <v>0.33750000000000002</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="21"/>
       <c r="M21" s="25"/>
       <c r="N21" s="1"/>
@@ -1871,27 +1896,27 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="48">
-        <v>1</v>
-      </c>
-      <c r="D22" s="39">
+      <c r="B22" s="37"/>
+      <c r="C22" s="47">
+        <v>1</v>
+      </c>
+      <c r="D22" s="38">
         <f>D28</f>
         <v>7</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="38">
         <v>0.45</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="38">
         <v>0.05</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="39">
         <f>PRODUCT(C22:F22)</f>
         <v>0.1575</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="21"/>
       <c r="M22" s="25"/>
       <c r="N22" s="1"/>
@@ -1902,102 +1927,102 @@
       <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="34">
+      <c r="A23" s="40"/>
+      <c r="B23" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="33">
         <f>SUM(G21:G22)</f>
         <v>0.495</v>
       </c>
-      <c r="H23" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="34">
+      <c r="H23" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="33">
         <v>10634.5</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="44">
         <f>G23*I23</f>
         <v>5264.0775000000003</v>
       </c>
-      <c r="K23" s="37"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="46">
+      <c r="A24" s="40"/>
+      <c r="B24" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="45">
         <f>0.13*G23*((114907.3+6135.3)/15)</f>
         <v>519.27275400000008</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="37"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="64">
+      <c r="A26" s="63">
         <v>4</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="46"/>
+        <v>47</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="45"/>
       <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
-      <c r="B27" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="48">
-        <v>1</v>
-      </c>
-      <c r="D27" s="39">
+      <c r="B27" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="47">
+        <v>1</v>
+      </c>
+      <c r="D27" s="38">
         <v>15</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="38">
         <v>0.45</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="38">
         <v>0.75</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="39">
         <f>PRODUCT(C27:F27)</f>
         <v>5.0625</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="21"/>
       <c r="M27" s="25"/>
       <c r="N27" s="1"/>
@@ -2009,26 +2034,26 @@
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="48">
-        <v>1</v>
-      </c>
-      <c r="D28" s="39">
+      <c r="B28" s="37"/>
+      <c r="C28" s="47">
+        <v>1</v>
+      </c>
+      <c r="D28" s="38">
         <v>7</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="38">
         <v>0.45</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="38">
         <v>0.75</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="39">
         <f>PRODUCT(C28:F28)</f>
         <v>2.3624999999999998</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="21"/>
       <c r="M28" s="25"/>
       <c r="N28" s="1"/>
@@ -2039,92 +2064,92 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="34">
+      <c r="A29" s="40"/>
+      <c r="B29" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="33">
         <f>SUM(G27:G28)</f>
         <v>7.4249999999999998</v>
       </c>
-      <c r="H29" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="34">
+      <c r="H29" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="33">
         <v>9709.43</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="44">
         <f>G29*I29</f>
         <v>72092.517749999999</v>
       </c>
-      <c r="K29" s="37"/>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="46">
+      <c r="A30" s="40"/>
+      <c r="B30" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="45">
         <f>0.13*G29*((27092.1)/5)</f>
         <v>5230.1299050000007</v>
       </c>
-      <c r="K30" s="37"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="37"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="36"/>
     </row>
     <row r="32" spans="1:19" ht="69" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>5</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="67" t="s">
+      <c r="D32" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="66" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="67" t="s">
-        <v>59</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="42"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
-      <c r="B33" s="38" t="s">
-        <v>62</v>
+      <c r="B33" s="37" t="s">
+        <v>60</v>
       </c>
       <c r="C33" s="19">
         <f>TRUNC(D34/0.15,0)</f>
@@ -2142,18 +2167,18 @@
         <f>PRODUCT(C33:E33)</f>
         <v>126.41975308641975</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G33" s="67">
         <f>F33/1000</f>
         <v>0.12641975308641976</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="42"/>
+      <c r="J33" s="41"/>
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="38"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="19">
         <f>TRUNC(D33/0.15,0)</f>
         <v>42</v>
@@ -2170,19 +2195,19 @@
         <f>PRODUCT(C34:E34)</f>
         <v>127.03703703703704</v>
       </c>
-      <c r="G34" s="68">
+      <c r="G34" s="67">
         <f>F34/1000</f>
         <v>0.12703703703703703</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="42"/>
+      <c r="J34" s="41"/>
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
-      <c r="B35" s="38" t="s">
-        <v>42</v>
+      <c r="B35" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="20"/>
@@ -2193,12 +2218,12 @@
         <v>0.25345679012345679</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I35" s="23">
         <v>124140</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="41">
         <f>G35*I35</f>
         <v>31464.125925925924</v>
       </c>
@@ -2206,8 +2231,8 @@
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
-      <c r="B36" s="38" t="s">
-        <v>40</v>
+      <c r="B36" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="20"/>
@@ -2216,7 +2241,7 @@
       <c r="G36" s="23"/>
       <c r="H36" s="22"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="42">
+      <c r="J36" s="41">
         <f>0.13*G35*110960</f>
         <v>3656.0635061728399</v>
       </c>
@@ -2224,7 +2249,7 @@
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
-      <c r="B37" s="38"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="19"/>
       <c r="D37" s="20"/>
       <c r="E37" s="21"/>
@@ -2232,7 +2257,7 @@
       <c r="G37" s="23"/>
       <c r="H37" s="22"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="42"/>
+      <c r="J37" s="41"/>
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:19" ht="69" x14ac:dyDescent="0.3">
@@ -2240,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="20"/>
@@ -2249,36 +2274,36 @@
       <c r="G38" s="23"/>
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="42"/>
+      <c r="J38" s="41"/>
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
-      <c r="B39" s="38" t="str">
+      <c r="B39" s="37" t="str">
         <f>B10</f>
         <v>-for road</v>
       </c>
-      <c r="C39" s="48">
-        <v>1</v>
-      </c>
-      <c r="D39" s="39">
+      <c r="C39" s="47">
+        <v>1</v>
+      </c>
+      <c r="D39" s="38">
         <f>D10</f>
         <v>6.5</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="38">
         <f>E10</f>
         <v>5</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="38">
         <v>0.15</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="39">
         <f>PRODUCT(C39:F39)</f>
         <v>4.875</v>
       </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="21"/>
       <c r="M39" s="25"/>
       <c r="N39" s="1"/>
@@ -2289,67 +2314,75 @@
       <c r="S39" s="25"/>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="34">
+      <c r="A40" s="40"/>
+      <c r="B40" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="33">
         <f>SUM(G39:G39)</f>
         <v>4.875</v>
       </c>
-      <c r="H40" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="34">
+      <c r="H40" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="33">
         <v>11588.17</v>
       </c>
-      <c r="J40" s="45">
+      <c r="J40" s="44">
         <f>G40*I40</f>
         <v>56492.328750000001</v>
       </c>
-      <c r="K40" s="37"/>
+      <c r="K40" s="36"/>
+      <c r="P40">
+        <f>301.32/10.76</f>
+        <v>28.003717472118961</v>
+      </c>
+      <c r="Q40">
+        <f>P40*0.15</f>
+        <v>4.2005576208178441</v>
+      </c>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="46">
+      <c r="A41" s="40"/>
+      <c r="B41" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="45">
         <f>0.13*G40*(128662.2+6685.5)/15</f>
         <v>5718.4403250000014</v>
       </c>
-      <c r="K41" s="37"/>
+      <c r="K41" s="36"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="37"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="36"/>
     </row>
     <row r="43" spans="1:19" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>7</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="20"/>
@@ -2358,39 +2391,39 @@
       <c r="G43" s="23"/>
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="42"/>
+      <c r="J43" s="41"/>
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
-      <c r="B44" s="38" t="s">
-        <v>64</v>
+      <c r="B44" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="C44" s="19">
         <v>1</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="38">
         <v>3</v>
       </c>
-      <c r="E44" s="39">
-        <v>1</v>
-      </c>
-      <c r="F44" s="39">
-        <v>1</v>
-      </c>
-      <c r="G44" s="40">
+      <c r="E44" s="38">
+        <v>1</v>
+      </c>
+      <c r="F44" s="38">
+        <v>1</v>
+      </c>
+      <c r="G44" s="39">
         <f t="shared" ref="G44" si="0">PRODUCT(C44:F44)</f>
         <v>3</v>
       </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
-      <c r="B45" s="38" t="s">
-        <v>42</v>
+      <c r="B45" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="20"/>
@@ -2401,12 +2434,12 @@
         <v>3</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I45" s="23">
         <v>6152.23</v>
       </c>
-      <c r="J45" s="42">
+      <c r="J45" s="41">
         <f>G45*I45</f>
         <v>18456.689999999999</v>
       </c>
@@ -2414,8 +2447,8 @@
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
-      <c r="B46" s="38" t="s">
-        <v>40</v>
+      <c r="B46" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="20"/>
@@ -2424,7 +2457,7 @@
       <c r="G46" s="23"/>
       <c r="H46" s="22"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="42">
+      <c r="J46" s="41">
         <f>0.13*G45*26798.3/6</f>
         <v>1741.8895</v>
       </c>
@@ -2432,7 +2465,7 @@
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
-      <c r="B47" s="38"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="19"/>
       <c r="D47" s="20"/>
       <c r="E47" s="21"/>
@@ -2440,7 +2473,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="42"/>
+      <c r="J47" s="41"/>
       <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
@@ -2448,7 +2481,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="20"/>
@@ -2457,59 +2490,59 @@
       <c r="G48" s="23"/>
       <c r="H48" s="22"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="42"/>
+      <c r="J48" s="41"/>
       <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
-      <c r="B49" s="38" t="s">
-        <v>64</v>
+      <c r="B49" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="C49" s="19">
         <v>1</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="38">
         <v>3</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39">
+      <c r="E49" s="38"/>
+      <c r="F49" s="38">
         <v>2</v>
       </c>
-      <c r="G49" s="40">
+      <c r="G49" s="39">
         <f t="shared" ref="G49:G50" si="1">PRODUCT(C49:F49)</f>
         <v>6</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
       <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
-      <c r="B50" s="38"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="19">
         <v>1</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="38">
         <v>3</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39">
-        <v>1</v>
-      </c>
-      <c r="G50" s="40">
+      <c r="E50" s="38"/>
+      <c r="F50" s="38">
+        <v>1</v>
+      </c>
+      <c r="G50" s="39">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
       <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
-      <c r="B51" s="38" t="s">
-        <v>42</v>
+      <c r="B51" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="20"/>
@@ -2520,12 +2553,12 @@
         <v>9</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I51" s="23">
         <v>161.41999999999999</v>
       </c>
-      <c r="J51" s="42">
+      <c r="J51" s="41">
         <f>G51*I51</f>
         <v>1452.78</v>
       </c>
@@ -2533,8 +2566,8 @@
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
-      <c r="B52" s="38" t="s">
-        <v>40</v>
+      <c r="B52" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="20"/>
@@ -2543,7 +2576,7 @@
       <c r="G52" s="23"/>
       <c r="H52" s="22"/>
       <c r="I52" s="23"/>
-      <c r="J52" s="42">
+      <c r="J52" s="41">
         <f>0.13*G51*45360/300</f>
         <v>176.904</v>
       </c>
@@ -2551,7 +2584,7 @@
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
-      <c r="B53" s="38"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="19"/>
       <c r="D53" s="20"/>
       <c r="E53" s="21"/>
@@ -2559,7 +2592,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="22"/>
       <c r="I53" s="23"/>
-      <c r="J53" s="42"/>
+      <c r="J53" s="41"/>
       <c r="K53" s="21"/>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2575,7 +2608,7 @@
       <c r="D54" s="20"/>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
-      <c r="G54" s="35">
+      <c r="G54" s="34">
         <f t="shared" ref="G54" si="2">PRODUCT(C54:F54)</f>
         <v>1</v>
       </c>
@@ -2585,7 +2618,7 @@
       <c r="I54" s="23">
         <v>500</v>
       </c>
-      <c r="J54" s="35">
+      <c r="J54" s="34">
         <f>G54*I54</f>
         <v>500</v>
       </c>
@@ -2608,7 +2641,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="22"/>
       <c r="I55" s="23"/>
-      <c r="J55" s="42"/>
+      <c r="J55" s="41"/>
       <c r="K55" s="21"/>
       <c r="M55" s="25"/>
       <c r="N55" s="1">
@@ -2622,224 +2655,224 @@
       <c r="S55" s="25"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="47" t="s">
+      <c r="A56" s="40"/>
+      <c r="B56" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42">
+      <c r="C56" s="47"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41">
         <f>SUM(J10:J54)</f>
         <v>226825.43584109875</v>
       </c>
-      <c r="K56" s="37"/>
+      <c r="K56" s="36"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="58"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="57"/>
     </row>
     <row r="58" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="83">
+      <c r="C58" s="71">
         <f>J56</f>
         <v>226825.43584109875</v>
       </c>
-      <c r="D58" s="83"/>
-      <c r="E58" s="40">
+      <c r="D58" s="71"/>
+      <c r="E58" s="39">
         <v>100</v>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="56"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="55"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="57"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="86">
+      <c r="C59" s="74">
         <v>200000</v>
       </c>
-      <c r="D59" s="86"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="50"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="49"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="57"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="86">
+      <c r="C60" s="74">
         <f>C59-C62-C63</f>
         <v>190000</v>
       </c>
-      <c r="D60" s="86"/>
-      <c r="E60" s="40">
+      <c r="D60" s="74"/>
+      <c r="E60" s="39">
         <f>C60/C58*100</f>
         <v>83.764856130642869</v>
       </c>
-      <c r="F60" s="50"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="50"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="49"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="83">
+      <c r="C61" s="71">
         <f>C58-C60</f>
         <v>36825.435841098748</v>
       </c>
-      <c r="D61" s="83"/>
-      <c r="E61" s="40">
+      <c r="D61" s="71"/>
+      <c r="E61" s="39">
         <f>100-E60</f>
         <v>16.235143869357131</v>
       </c>
-      <c r="F61" s="50"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="50"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="49"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="57"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="83">
+      <c r="C62" s="71">
         <f>C59*0.03</f>
         <v>6000</v>
       </c>
-      <c r="D62" s="83"/>
-      <c r="E62" s="40">
+      <c r="D62" s="71"/>
+      <c r="E62" s="39">
         <v>3</v>
       </c>
-      <c r="F62" s="50"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="50"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="49"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="57"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="83">
+      <c r="C63" s="71">
         <f>C59*0.02</f>
         <v>4000</v>
       </c>
-      <c r="D63" s="83"/>
-      <c r="E63" s="40">
+      <c r="D63" s="71"/>
+      <c r="E63" s="39">
         <v>2</v>
       </c>
-      <c r="F63" s="50"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="50"/>
-    </row>
-    <row r="64" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="58"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
-    </row>
-    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="49"/>
+    </row>
+    <row r="64" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+    </row>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="O15:U15"/>
@@ -2869,10 +2902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2891,90 +2924,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="A2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="77" t="e">
-        <f>F33</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="78"/>
+      <c r="C6" s="89">
+        <f>F39</f>
+        <v>226825.43584109875</v>
+      </c>
+      <c r="D6" s="90"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2982,11 +3015,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="77" t="e">
-        <f>I33</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K6" s="78"/>
+      <c r="J6" s="89">
+        <f>I39</f>
+        <v>157267.48864416359</v>
+      </c>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -2995,77 +3028,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="I7" s="73" t="s">
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="I7" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="I8" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
+      <c r="A8" s="76" t="str">
+        <f>estimate!A6</f>
+        <v xml:space="preserve">Project:- बद्री पुडासैनीको घर जाने बाटो ढलान </v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="I8" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="75" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="I9" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="A9" s="87" t="str">
+        <f>estimate!A7</f>
+        <v>Location:- Shankharapur Municipality 9</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="I9" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76" t="s">
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="69" t="s">
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="K11" s="83" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -3084,74 +3117,74 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B13" s="32" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="12" t="e">
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <f>estimate!A9</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="str">
+        <f>estimate!B9</f>
+        <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer. (खन्ने पुर्ने कार्य)</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>estimate!H12</f>
+        <v>m3</v>
+      </c>
+      <c r="D13" s="12">
+        <f>estimate!G12</f>
+        <v>7.875</v>
+      </c>
+      <c r="E13" s="12">
+        <f>estimate!I12</f>
+        <v>64.63</v>
+      </c>
+      <c r="F13" s="12">
         <f>D13*E13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="12" t="e">
+        <v>508.96124999999995</v>
+      </c>
+      <c r="G13" s="12">
+        <f>V!G13</f>
+        <v>7.4176917475763098</v>
+      </c>
+      <c r="H13" s="12">
+        <f>V!I13</f>
+        <v>64.63</v>
+      </c>
+      <c r="I13" s="12">
         <f>G13*H13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="28" t="e">
+        <v>479.40541764585686</v>
+      </c>
+      <c r="J13" s="28">
         <f>I13-F13</f>
-        <v>#REF!</v>
+        <v>-29.555832354143092</v>
       </c>
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
-      <c r="B14" s="33" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B14" s="70" t="str">
+        <f>estimate!B13</f>
+        <v>VAT calculation</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F14" s="12">
+        <f>estimate!J13</f>
+        <v>54.838874999999994</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" s="28" t="e">
+      <c r="I14" s="12">
+        <f>V!J14</f>
+        <v>51.65433276620557</v>
+      </c>
+      <c r="J14" s="28">
         <f>I14-F14</f>
-        <v>#REF!</v>
+        <v>-3.1845422337944242</v>
       </c>
       <c r="K14" s="14"/>
     </row>
@@ -3168,71 +3201,71 @@
       <c r="J15" s="28"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B16" s="32" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="12" t="e">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <f>estimate!A15</f>
+        <v>2</v>
+      </c>
+      <c r="B16" s="32" t="str">
+        <f>estimate!B15</f>
+        <v>Providing and laying of hand pack Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
+      </c>
+      <c r="C16" s="12" t="str">
+        <f>estimate!H17</f>
+        <v>m3</v>
+      </c>
+      <c r="D16" s="12">
+        <f>estimate!G17</f>
+        <v>4.875</v>
+      </c>
+      <c r="E16" s="12">
+        <f>estimate!I17</f>
+        <v>4434.5200000000004</v>
+      </c>
+      <c r="F16" s="12">
         <f>D16*E16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="12" t="e">
+        <v>21618.285000000003</v>
+      </c>
+      <c r="G16" s="12">
+        <f>V!G19</f>
+        <v>4.2176917475763096</v>
+      </c>
+      <c r="H16" s="12">
+        <f>V!I19</f>
+        <v>4434.5200000000004</v>
+      </c>
+      <c r="I16" s="12">
         <f>G16*H16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" s="28" t="e">
+        <v>18703.438408462098</v>
+      </c>
+      <c r="J16" s="28">
         <f>I16-F16</f>
-        <v>#REF!</v>
+        <v>-2914.8465915379056</v>
       </c>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
-      <c r="B17" s="33" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B17" s="70" t="str">
+        <f>estimate!B18</f>
+        <v>VAT calculation</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F17" s="12">
+        <f>estimate!J18</f>
+        <v>1878.1308000000001</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J17" s="28" t="e">
+      <c r="I17" s="12">
+        <f>V!J20</f>
+        <v>1624.8978002110548</v>
+      </c>
+      <c r="J17" s="28">
         <f>I17-F17</f>
-        <v>#REF!</v>
+        <v>-253.23299978894534</v>
       </c>
       <c r="K17" s="14"/>
     </row>
@@ -3249,71 +3282,71 @@
       <c r="J18" s="28"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B19" s="32" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C19" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F19" s="12" t="e">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
+        <f>estimate!A20</f>
+        <v>3</v>
+      </c>
+      <c r="B19" s="32" t="str">
+        <f>estimate!B20</f>
+        <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
+      </c>
+      <c r="C19" s="12" t="str">
+        <f>estimate!H23</f>
+        <v>m3</v>
+      </c>
+      <c r="D19" s="12">
+        <f>estimate!G23</f>
+        <v>0.495</v>
+      </c>
+      <c r="E19" s="12">
+        <f>estimate!I23</f>
+        <v>10634.5</v>
+      </c>
+      <c r="F19" s="12">
         <f>D19*E19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G19" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I19" s="12" t="e">
+        <v>5264.0775000000003</v>
+      </c>
+      <c r="G19" s="12">
+        <f>V!G29</f>
+        <v>0.22825000000000001</v>
+      </c>
+      <c r="H19" s="12">
+        <f>V!I29</f>
+        <v>10634.5</v>
+      </c>
+      <c r="I19" s="12">
         <f>G19*H19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J19" s="28" t="e">
+        <v>2427.3246250000002</v>
+      </c>
+      <c r="J19" s="28">
         <f>I19-F19</f>
-        <v>#REF!</v>
+        <v>-2836.7528750000001</v>
       </c>
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
-      <c r="B20" s="33" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B20" s="32" t="str">
+        <f>estimate!B24</f>
+        <v>VAT calculation</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F20" s="12">
+        <f>estimate!J24</f>
+        <v>519.27275400000008</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J20" s="28" t="e">
+      <c r="I20" s="12">
+        <f>V!J30</f>
+        <v>239.44243656666669</v>
+      </c>
+      <c r="J20" s="28">
         <f>I20-F20</f>
-        <v>#REF!</v>
+        <v>-279.83031743333339</v>
       </c>
       <c r="K20" s="14"/>
     </row>
@@ -3330,71 +3363,71 @@
       <c r="J21" s="28"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B22" s="32" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C22" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D22" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E22" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F22" s="12" t="e">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
+        <f>estimate!A26</f>
+        <v>4</v>
+      </c>
+      <c r="B22" s="32" t="str">
+        <f>estimate!B26</f>
+        <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</v>
+      </c>
+      <c r="C22" s="12" t="str">
+        <f>estimate!H29</f>
+        <v>m3</v>
+      </c>
+      <c r="D22" s="12">
+        <f>estimate!G29</f>
+        <v>7.4249999999999998</v>
+      </c>
+      <c r="E22" s="12">
+        <f>estimate!I29</f>
+        <v>9709.43</v>
+      </c>
+      <c r="F22" s="12">
         <f>D22*E22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G22" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H22" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I22" s="12" t="e">
+        <v>72092.517749999999</v>
+      </c>
+      <c r="G22" s="12">
+        <f>V!G38</f>
+        <v>2.8201249999999995</v>
+      </c>
+      <c r="H22" s="12">
+        <f>V!I38</f>
+        <v>9709.43</v>
+      </c>
+      <c r="I22" s="12">
         <f>G22*H22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J22" s="28" t="e">
+        <v>27381.806278749995</v>
+      </c>
+      <c r="J22" s="28">
         <f>I22-F22</f>
-        <v>#REF!</v>
+        <v>-44710.711471250004</v>
       </c>
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
-      <c r="B23" s="33" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B23" s="32" t="str">
+        <f>estimate!B30</f>
+        <v>VAT calculation</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F23" s="12">
+        <f>estimate!J30</f>
+        <v>5230.1299050000007</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J23" s="28" t="e">
+      <c r="I23" s="12">
+        <f>V!J39</f>
+        <v>1986.4808213249999</v>
+      </c>
+      <c r="J23" s="28">
         <f>I23-F23</f>
-        <v>#REF!</v>
+        <v>-3243.6490836750008</v>
       </c>
       <c r="K23" s="14"/>
     </row>
@@ -3411,71 +3444,71 @@
       <c r="J24" s="28"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B25" s="32" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C25" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E25" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F25" s="12" t="e">
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
+        <f>estimate!A32</f>
+        <v>5</v>
+      </c>
+      <c r="B25" s="32" t="str">
+        <f>estimate!B32</f>
+        <v>Providing and laying , fitting and placing HYSD bar reinforcement in sub-structure complete as per Drawing and Technical Specifications</v>
+      </c>
+      <c r="C25" s="12" t="str">
+        <f>estimate!H35</f>
+        <v>MT</v>
+      </c>
+      <c r="D25" s="12">
+        <f>estimate!G35</f>
+        <v>0.25345679012345679</v>
+      </c>
+      <c r="E25" s="12">
+        <f>estimate!I35</f>
+        <v>124140</v>
+      </c>
+      <c r="F25" s="12">
         <f>D25*E25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G25" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I25" s="12" t="e">
+        <v>31464.125925925924</v>
+      </c>
+      <c r="G25" s="12">
+        <f>V!G44</f>
+        <v>0.20540071718574204</v>
+      </c>
+      <c r="H25" s="12">
+        <f>V!I44</f>
+        <v>124140</v>
+      </c>
+      <c r="I25" s="12">
         <f>G25*H25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J25" s="28" t="e">
+        <v>25498.445031438016</v>
+      </c>
+      <c r="J25" s="28">
         <f>I25-F25</f>
-        <v>#REF!</v>
+        <v>-5965.6808944879085</v>
       </c>
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
-      <c r="B26" s="33" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B26" s="32" t="str">
+        <f>estimate!B36</f>
+        <v>VAT calculation</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F26" s="12">
+        <f>estimate!J36</f>
+        <v>3656.0635061728399</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J26" s="28" t="e">
+      <c r="I26" s="12">
+        <f>V!J45</f>
+        <v>2962.8642652608919</v>
+      </c>
+      <c r="J26" s="28">
         <f>I26-F26</f>
-        <v>#REF!</v>
+        <v>-693.19924091194798</v>
       </c>
       <c r="K26" s="14"/>
     </row>
@@ -3492,77 +3525,77 @@
       <c r="J27" s="28"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B28" s="32" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C28" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E28" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F28" s="12" t="e">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
+        <f>estimate!A38</f>
+        <v>6</v>
+      </c>
+      <c r="B28" s="32" t="str">
+        <f>estimate!B38</f>
+        <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications., RCC Grade M 20</v>
+      </c>
+      <c r="C28" s="12" t="str">
+        <f>estimate!H40</f>
+        <v>m3</v>
+      </c>
+      <c r="D28" s="12">
+        <f>estimate!G40</f>
+        <v>4.875</v>
+      </c>
+      <c r="E28" s="12">
+        <f>estimate!I40</f>
+        <v>11588.17</v>
+      </c>
+      <c r="F28" s="12">
         <f>D28*E28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G28" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I28" s="12" t="e">
+        <v>56492.328750000001</v>
+      </c>
+      <c r="G28" s="12">
+        <f>V!G49</f>
+        <v>4.1989417475763098</v>
+      </c>
+      <c r="H28" s="12">
+        <f>V!I49</f>
+        <v>11588.17</v>
+      </c>
+      <c r="I28" s="12">
         <f>G28*H28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J28" s="28" t="e">
+        <v>48658.050791011367</v>
+      </c>
+      <c r="J28" s="28">
         <f>I28-F28</f>
-        <v>#REF!</v>
+        <v>-7834.2779589886341</v>
       </c>
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
-      <c r="B29" s="33" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B29" s="32" t="str">
+        <f>estimate!B41</f>
+        <v>VAT calculation</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F29" s="12">
+        <f>estimate!J41</f>
+        <v>5718.4403250000014</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J29" s="28" t="e">
+      <c r="I29" s="12">
+        <f>V!J50</f>
+        <v>4925.4149357264296</v>
+      </c>
+      <c r="J29" s="28">
         <f>I29-F29</f>
-        <v>#REF!</v>
+        <v>-793.02538927357182</v>
       </c>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -3573,85 +3606,247 @@
       <c r="J30" s="28"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B31" s="31" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C31" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D31" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E31" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F31" s="12" t="e">
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="27">
+        <f>estimate!A43</f>
+        <v>7</v>
+      </c>
+      <c r="B31" s="32" t="str">
+        <f>estimate!B43</f>
+        <v>Gabion Structure for Retaining Earth,Providing and laying Gabion structure for retaining earth with diaphragm including rolling, cutting, weaving, placing, laying sides and diaphragms with binding wire and filling boulders all complete as per drawing and technical specification Mesh wire- 10 Swg(0.0615 kg/m), Selvedge Wire 8 Swg ( 0.1057 kg/m), binding wire 12 Swg (0.0409 kg/m) Hexagonal mesh Type 100 mm X 120 mm,, Box size 3 X 1 X 1 m ( 6 sqm)</v>
+      </c>
+      <c r="C31" s="12" t="str">
+        <f>estimate!H45</f>
+        <v>m3</v>
+      </c>
+      <c r="D31" s="12">
+        <f>estimate!G45</f>
+        <v>3</v>
+      </c>
+      <c r="E31" s="12">
+        <f>estimate!I45</f>
+        <v>6152.23</v>
+      </c>
+      <c r="F31" s="12">
         <f>D31*E31</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H31" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I31" s="12" t="e">
+        <v>18456.689999999999</v>
+      </c>
+      <c r="G31" s="12">
+        <f>V!G54</f>
+        <v>3</v>
+      </c>
+      <c r="H31" s="12">
+        <f>V!I54</f>
+        <v>6152.23</v>
+      </c>
+      <c r="I31" s="12">
         <f>G31*H31</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J31" s="28" t="e">
+        <v>18456.689999999999</v>
+      </c>
+      <c r="J31" s="28">
         <f>I31-F31</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="32" t="str">
+        <f>estimate!B46</f>
+        <v>VAT calculation</v>
+      </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="12">
+        <f>estimate!J46</f>
+        <v>1741.8895</v>
+      </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="28"/>
+      <c r="I32" s="12">
+        <f>V!J55</f>
+        <v>1741.8895</v>
+      </c>
+      <c r="J32" s="28">
+        <f>I32-F32</f>
+        <v>0</v>
+      </c>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="27">
+        <f>estimate!A48</f>
+        <v>8</v>
+      </c>
+      <c r="B34" s="32" t="str">
+        <f>estimate!B48</f>
+        <v>Laying and fixing of Geo-Textile all complete as per specification., Providing  and laying of a geotextile filter between pitching and embankment slopes as per Drawing and Technical Specifications.</v>
+      </c>
+      <c r="C34" s="12" t="str">
+        <f>estimate!H51</f>
+        <v>sqm</v>
+      </c>
+      <c r="D34" s="12">
+        <f>estimate!G51</f>
+        <v>9</v>
+      </c>
+      <c r="E34" s="12">
+        <f>estimate!I51</f>
+        <v>161.41999999999999</v>
+      </c>
+      <c r="F34" s="12">
+        <f>D34*E34</f>
+        <v>1452.78</v>
+      </c>
+      <c r="G34" s="12">
+        <f>V!G60</f>
+        <v>9</v>
+      </c>
+      <c r="H34" s="12">
+        <f>V!I60</f>
+        <v>161.41999999999999</v>
+      </c>
+      <c r="I34" s="12">
+        <f>G34*H34</f>
+        <v>1452.78</v>
+      </c>
+      <c r="J34" s="28">
+        <f>I34-F34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="32" t="str">
+        <f>estimate!B52</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12">
+        <f>estimate!J52</f>
+        <v>176.904</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12">
+        <f>V!J61</f>
+        <v>176.904</v>
+      </c>
+      <c r="J35" s="28">
+        <f>I35-F35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27">
+        <f>estimate!A54</f>
+        <v>9</v>
+      </c>
+      <c r="B37" s="31" t="str">
+        <f>estimate!B54</f>
+        <v>Information board (सुचना पाटि)</v>
+      </c>
+      <c r="C37" s="12" t="str">
+        <f>estimate!H54</f>
+        <v>no.</v>
+      </c>
+      <c r="D37" s="12">
+        <f>estimate!G54</f>
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <f>estimate!I54</f>
+        <v>500</v>
+      </c>
+      <c r="F37" s="12">
+        <f>D37*E37</f>
+        <v>500</v>
+      </c>
+      <c r="G37" s="12">
+        <f>V!G63</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="12">
+        <f>V!I63</f>
+        <v>500</v>
+      </c>
+      <c r="I37" s="12">
+        <f>G37*H37</f>
+        <v>500</v>
+      </c>
+      <c r="J37" s="28">
+        <f>I37-F37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7" t="e">
-        <f>SUM(F13:F31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7" t="e">
-        <f>SUM(I13:I31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J33" s="13" t="e">
-        <f>I33-F33</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K33" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7">
+        <f>SUM(F13:F37)</f>
+        <v>226825.43584109875</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7">
+        <f>SUM(I13:I37)</f>
+        <v>157267.48864416359</v>
+      </c>
+      <c r="J39" s="13">
+        <f>I39-F39</f>
+        <v>-69557.947196935158</v>
+      </c>
+      <c r="K39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3690,10 +3885,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U119"/>
+  <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3710,116 +3905,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="A5" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="O6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -3856,7 +4051,7 @@
         <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="138" x14ac:dyDescent="0.3">
@@ -3864,150 +4059,153 @@
         <v>1</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
+        <v>49</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
-      <c r="B10" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="37">
-        <v>1</v>
-      </c>
-      <c r="D10" s="39">
-        <v>6.5</v>
-      </c>
-      <c r="E10" s="39">
-        <v>5</v>
-      </c>
-      <c r="F10" s="39">
+      <c r="B10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="47">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <f>E17</f>
+        <v>27.992944983842065</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38">
         <v>0.15</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="39">
         <f>PRODUCT(C10:F10)</f>
-        <v>4.875</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+        <v>4.1989417475763098</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="21"/>
       <c r="M10" s="25"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="25"/>
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="37">
-        <v>1</v>
-      </c>
-      <c r="D11" s="39">
+      <c r="B11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
         <v>3</v>
       </c>
-      <c r="E11" s="39">
-        <v>1</v>
-      </c>
-      <c r="F11" s="39">
-        <v>1</v>
-      </c>
-      <c r="G11" s="40">
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39">
         <f>PRODUCT(C11:F11)</f>
         <v>3</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="21"/>
       <c r="M11" s="25"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
-      <c r="B12" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23">
-        <f>SUM(G10:G11)</f>
-        <v>7.875</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="23">
-        <v>64.63</v>
-      </c>
-      <c r="J12" s="42">
-        <f>G12*I12</f>
-        <v>508.96124999999995</v>
-      </c>
+      <c r="B12" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
+      <c r="D12" s="38">
+        <v>1</v>
+      </c>
+      <c r="E12" s="38">
+        <f>0.5/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="38">
+        <f>(1+0.85)/2-0.05</f>
+        <v>0.875</v>
+      </c>
+      <c r="G12" s="39">
+        <f>PRODUCT(C12:F12)</f>
+        <v>0.21875</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="21"/>
       <c r="M12" s="25"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="42">
-        <f>0.13*G12*19284/360</f>
-        <v>54.838874999999994</v>
+      <c r="G13" s="23">
+        <f>SUM(G10:G12)</f>
+        <v>7.4176917475763098</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="23">
+        <v>64.63</v>
+      </c>
+      <c r="J13" s="41">
+        <f>G13*I13</f>
+        <v>479.40541764585686</v>
       </c>
       <c r="K13" s="21"/>
       <c r="M13" s="25"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
@@ -4015,23 +4213,20 @@
       <c r="G14" s="23"/>
       <c r="H14" s="22"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="42"/>
+      <c r="J14" s="41">
+        <f>0.13*G13*19284/360</f>
+        <v>51.65433276620557</v>
+      </c>
       <c r="K14" s="21"/>
       <c r="M14" s="25"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>2</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>44</v>
-      </c>
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
@@ -4039,192 +4234,183 @@
       <c r="G15" s="23"/>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="21"/>
       <c r="M15" s="25"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-    </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="38" t="str">
-        <f>B21</f>
-        <v>-For stone masonary</v>
-      </c>
-      <c r="C16" s="48">
-        <v>1</v>
-      </c>
-      <c r="D16" s="39">
-        <f>D10</f>
-        <v>6.5</v>
-      </c>
-      <c r="E16" s="39">
-        <f>E10</f>
-        <v>5</v>
-      </c>
-      <c r="F16" s="39">
-        <v>0.15</v>
-      </c>
-      <c r="G16" s="40">
-        <f>PRODUCT(C16:F16)</f>
-        <v>4.875</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>2</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="E16" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="41"/>
       <c r="K16" s="21"/>
       <c r="M16" s="25"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
+      <c r="O16" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="34">
-        <f>SUM(G16)</f>
-        <v>4.875</v>
-      </c>
-      <c r="H17" s="34" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="47">
+        <v>1</v>
+      </c>
+      <c r="E17" s="38">
+        <f>D48</f>
+        <v>27.992944983842065</v>
+      </c>
+      <c r="F17" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G17" s="39">
+        <f>PRODUCT(C17:F17)</f>
+        <v>4.1989417475763098</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="37" t="str">
+        <f>B12</f>
+        <v>-for masonary wall</v>
+      </c>
+      <c r="C18" s="47">
+        <f>C12</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="38">
+        <f>D12</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="38">
+        <f>E12</f>
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G18" s="39">
+        <f>PRODUCT(C18:F18)</f>
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="33">
+        <f>SUM(G17:G18)</f>
+        <v>4.2176917475763096</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="33">
+        <v>4434.5200000000004</v>
+      </c>
+      <c r="J19" s="44">
+        <f>G19*I19</f>
+        <v>18703.438408462098</v>
+      </c>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="45">
+        <f>0.13*G19*(14817.6/5)</f>
+        <v>1624.8978002110548</v>
+      </c>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>3</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="34">
-        <v>4434.5200000000004</v>
-      </c>
-      <c r="J17" s="45">
-        <f>G17*I17</f>
-        <v>21618.285000000003</v>
-      </c>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="46">
-        <f>0.13*G17*(14817.6/5)</f>
-        <v>1878.1308000000001</v>
-      </c>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
-        <v>3</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="48">
-        <v>1</v>
-      </c>
-      <c r="D21" s="39">
-        <f>D27</f>
-        <v>15</v>
-      </c>
-      <c r="E21" s="39">
-        <v>0.45</v>
-      </c>
-      <c r="F21" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="G21" s="40">
-        <f>PRODUCT(C21:F21)</f>
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="21"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="48">
-        <v>1</v>
-      </c>
-      <c r="D22" s="39">
-        <f>D28</f>
-        <v>7</v>
-      </c>
-      <c r="E22" s="39">
-        <v>0.45</v>
-      </c>
-      <c r="F22" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="G22" s="40">
-        <f>PRODUCT(C22:F22)</f>
-        <v>0.1575</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="41"/>
       <c r="K22" s="21"/>
       <c r="M22" s="25"/>
@@ -4236,102 +4422,155 @@
       <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="34">
-        <f>SUM(G21:G22)</f>
-        <v>0.495</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="34">
-        <v>10634.5</v>
-      </c>
-      <c r="J23" s="45">
-        <f>G23*I23</f>
-        <v>5264.0775000000003</v>
-      </c>
-      <c r="K23" s="37"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="47">
+        <v>1</v>
+      </c>
+      <c r="D23" s="38">
+        <v>1.75</v>
+      </c>
+      <c r="E23" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="39">
+        <f t="shared" ref="G23:G28" si="0">PRODUCT(C23:F23)</f>
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="21"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="46">
-        <f>0.13*G23*((114907.3+6135.3)/15)</f>
-        <v>519.27275400000008</v>
-      </c>
-      <c r="K24" s="37"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="47">
+        <v>1</v>
+      </c>
+      <c r="D24" s="38">
+        <v>1</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="39">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="64">
-        <v>4</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="47">
+        <v>1</v>
+      </c>
+      <c r="D25" s="38">
+        <v>1</v>
+      </c>
+      <c r="E25" s="38">
+        <f>0.5/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="F25" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="39">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="47">
+        <v>1</v>
+      </c>
+      <c r="D26" s="38">
+        <v>1</v>
+      </c>
+      <c r="E26" s="38">
+        <f>0.5/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G26" s="39">
+        <f t="shared" ref="G26" si="1">PRODUCT(C26:F26)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="29"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
-      <c r="B27" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="48">
-        <v>1</v>
-      </c>
-      <c r="D27" s="39">
-        <v>15</v>
-      </c>
-      <c r="E27" s="39">
-        <v>0.45</v>
-      </c>
-      <c r="F27" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="G27" s="40">
-        <f>PRODUCT(C27:F27)</f>
-        <v>5.0625</v>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="47">
+        <v>1</v>
+      </c>
+      <c r="D27" s="38">
+        <v>2.98</v>
+      </c>
+      <c r="E27" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="39">
+        <f t="shared" si="0"/>
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="21"/>
       <c r="M27" s="25"/>
       <c r="N27" s="1"/>
@@ -4343,26 +4582,26 @@
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="48">
-        <v>1</v>
-      </c>
-      <c r="D28" s="39">
-        <v>7</v>
-      </c>
-      <c r="E28" s="39">
-        <v>0.45</v>
-      </c>
-      <c r="F28" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="G28" s="40">
-        <f>PRODUCT(C28:F28)</f>
-        <v>2.3624999999999998</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="47">
+        <v>1</v>
+      </c>
+      <c r="D28" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="E28" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G28" s="39">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="21"/>
       <c r="M28" s="25"/>
       <c r="N28" s="1"/>
@@ -4373,318 +4612,2264 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="34">
-        <f>SUM(G27:G28)</f>
-        <v>7.4249999999999998</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="34">
-        <v>9709.43</v>
-      </c>
-      <c r="J29" s="45">
+      <c r="A29" s="40"/>
+      <c r="B29" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="33">
+        <f>SUM(G23:G28)</f>
+        <v>0.22825000000000001</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="33">
+        <v>10634.5</v>
+      </c>
+      <c r="J29" s="44">
         <f>G29*I29</f>
-        <v>72092.517749999999</v>
-      </c>
-      <c r="K29" s="37"/>
+        <v>2427.3246250000002</v>
+      </c>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="46">
-        <f>0.13*G29*((27092.1)/5)</f>
-        <v>5230.1299050000007</v>
-      </c>
-      <c r="K30" s="37"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="45">
+        <f>0.13*G29*((114907.3+6135.3)/15)</f>
+        <v>239.44243656666669</v>
+      </c>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
       <c r="J31" s="45"/>
-      <c r="K31" s="37"/>
-    </row>
-    <row r="32" spans="1:19" ht="69" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
-        <v>5</v>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:19" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="63">
+        <v>4</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="29"/>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
-      <c r="B33" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="19">
-        <f>TRUNC(D34/0.15,0)</f>
-        <v>32</v>
-      </c>
-      <c r="D33" s="20">
-        <f>D10-0.1</f>
-        <v>6.4</v>
-      </c>
-      <c r="E33" s="21">
+      <c r="B33" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="47">
+        <v>1</v>
+      </c>
+      <c r="D33" s="38">
+        <v>1.75</v>
+      </c>
+      <c r="E33" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="38">
+        <f>(0.65+0.5)/2-0.05</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="G33" s="39">
+        <f t="shared" ref="G33:G37" si="2">PRODUCT(C33:F33)</f>
+        <v>0.45937499999999992</v>
+      </c>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="47">
+        <v>1</v>
+      </c>
+      <c r="D34" s="38">
+        <v>1</v>
+      </c>
+      <c r="E34" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="38">
+        <f>(1.15+1)/2-0.05</f>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G34" s="39">
+        <f t="shared" si="2"/>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="47">
+        <v>1</v>
+      </c>
+      <c r="D35" s="38">
+        <v>1</v>
+      </c>
+      <c r="E35" s="38">
+        <f>0.5/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="F35" s="38">
+        <f>(1+0.85)/2-0.05</f>
+        <v>0.875</v>
+      </c>
+      <c r="G35" s="39">
+        <f t="shared" si="2"/>
+        <v>0.21875</v>
+      </c>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="47">
+        <v>1</v>
+      </c>
+      <c r="D36" s="38">
+        <v>2.98</v>
+      </c>
+      <c r="E36" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="38">
+        <f>(0.6)-0.05</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="G36" s="39">
+        <f t="shared" si="2"/>
+        <v>0.8194999999999999</v>
+      </c>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="47">
+        <v>1</v>
+      </c>
+      <c r="D37" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="E37" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="38">
+        <f>(0.7+0.75)/2-0.05</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="G37" s="39">
+        <f t="shared" si="2"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="21"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+      <c r="B38" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="33">
+        <f>SUM(G33:G37)</f>
+        <v>2.8201249999999995</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="33">
+        <v>9709.43</v>
+      </c>
+      <c r="J38" s="44">
+        <f>G38*I38</f>
+        <v>27381.806278749995</v>
+      </c>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
+      <c r="B39" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="45">
+        <f>0.13*G38*((27092.1)/5)</f>
+        <v>1986.4808213249999</v>
+      </c>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <v>5</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="19">
+        <v>25</v>
+      </c>
+      <c r="D42" s="20">
+        <f>22.25/3.281</f>
+        <v>6.7814690643096611</v>
+      </c>
+      <c r="E42" s="21">
         <f>10*10/162</f>
         <v>0.61728395061728392</v>
       </c>
-      <c r="F33" s="21">
-        <f>PRODUCT(C33:E33)</f>
-        <v>126.41975308641975</v>
-      </c>
-      <c r="G33" s="68">
-        <f>F33/1000</f>
-        <v>0.12641975308641976</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="42"/>
+      <c r="F42" s="21">
+        <f>PRODUCT(C42:E42)</f>
+        <v>104.65230037514908</v>
+      </c>
+      <c r="G42" s="67">
+        <f>F42/1000</f>
+        <v>0.10465230037514908</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="19">
+        <v>42</v>
+      </c>
+      <c r="D43" s="20">
+        <f>12.75/3.281</f>
+        <v>3.8860103626943006</v>
+      </c>
+      <c r="E43" s="21">
+        <f>10*10/162</f>
+        <v>0.61728395061728392</v>
+      </c>
+      <c r="F43" s="21">
+        <f>PRODUCT(C43:E43)</f>
+        <v>100.74841681059297</v>
+      </c>
+      <c r="G43" s="67">
+        <f>F43/1000</f>
+        <v>0.10074841681059298</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="23">
+        <f>SUM(G42:G43)</f>
+        <v>0.20540071718574204</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="23">
+        <v>124140</v>
+      </c>
+      <c r="J44" s="41">
+        <f>G44*I44</f>
+        <v>25498.445031438016</v>
+      </c>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="41">
+        <f>0.13*G44*110960</f>
+        <v>2962.8642652608919</v>
+      </c>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
+        <v>6</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="37" t="str">
+        <f>B10</f>
+        <v>-for road</v>
+      </c>
+      <c r="C48" s="47">
+        <v>1</v>
+      </c>
+      <c r="D48" s="38">
+        <f>M!G51</f>
+        <v>27.992944983842065</v>
+      </c>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G48" s="39">
+        <f>PRODUCT(C48:F48)</f>
+        <v>4.1989417475763098</v>
+      </c>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="21"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+    </row>
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="40"/>
+      <c r="B49" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="42"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="33">
+        <f>SUM(G48:G48)</f>
+        <v>4.1989417475763098</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="33">
+        <v>11588.17</v>
+      </c>
+      <c r="J49" s="44">
+        <f>G49*I49</f>
+        <v>48658.050791011367</v>
+      </c>
+      <c r="K49" s="36"/>
+    </row>
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
+      <c r="B50" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="42"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="45">
+        <f>0.13*G49*(128662.2+6685.5)/15</f>
+        <v>4925.4149357264296</v>
+      </c>
+      <c r="K50" s="36"/>
+    </row>
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="40"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="36"/>
+    </row>
+    <row r="52" spans="1:19" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="18">
+        <v>7</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="19">
+        <v>1</v>
+      </c>
+      <c r="D53" s="38">
+        <v>3</v>
+      </c>
+      <c r="E53" s="38">
+        <v>1</v>
+      </c>
+      <c r="F53" s="38">
+        <v>1</v>
+      </c>
+      <c r="G53" s="39">
+        <f t="shared" ref="G53" si="3">PRODUCT(C53:F53)</f>
+        <v>3</v>
+      </c>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="23">
+        <f>SUM(G53:G53)</f>
+        <v>3</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="23">
+        <v>6152.23</v>
+      </c>
+      <c r="J54" s="41">
+        <f>G54*I54</f>
+        <v>18456.689999999999</v>
+      </c>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="41">
+        <f>0.13*G54*26798.3/6</f>
+        <v>1741.8895</v>
+      </c>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="18">
+        <v>8</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+      <c r="B58" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="19">
+        <v>1</v>
+      </c>
+      <c r="D58" s="38">
+        <v>3</v>
+      </c>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38">
+        <v>2</v>
+      </c>
+      <c r="G58" s="39">
+        <f t="shared" ref="G58:G59" si="4">PRODUCT(C58:F58)</f>
+        <v>6</v>
+      </c>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="18"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="19">
+        <v>1</v>
+      </c>
+      <c r="D59" s="38">
+        <v>3</v>
+      </c>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38">
+        <v>1</v>
+      </c>
+      <c r="G59" s="39">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="23">
+        <f>SUM(G58:G59)</f>
+        <v>9</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" s="23">
+        <v>161.41999999999999</v>
+      </c>
+      <c r="J60" s="41">
+        <f>G60*I60</f>
+        <v>1452.78</v>
+      </c>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="41">
+        <f>0.13*G60*45360/300</f>
+        <v>176.904</v>
+      </c>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="18"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="21"/>
+    </row>
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="18">
+        <v>9</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="19">
+        <v>1</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="34">
+        <f t="shared" ref="G63" si="5">PRODUCT(C63:F63)</f>
+        <v>1</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="23">
+        <v>500</v>
+      </c>
+      <c r="J63" s="34">
+        <f>G63*I63</f>
+        <v>500</v>
+      </c>
+      <c r="K63" s="21"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+    </row>
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="21"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="1">
+        <f>2.4*3.281</f>
+        <v>7.8743999999999996</v>
+      </c>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="40"/>
+      <c r="B65" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="47"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41">
+        <f>SUM(J10:J63)</f>
+        <v>157267.48864416359</v>
+      </c>
+      <c r="K65" s="36"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="58"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="57"/>
+    </row>
+    <row r="67" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="50"/>
+      <c r="B67" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="71">
+        <f>J65</f>
+        <v>157267.48864416359</v>
+      </c>
+      <c r="D67" s="71"/>
+      <c r="E67" s="39">
+        <v>100</v>
+      </c>
+      <c r="F67" s="51"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="55"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="56"/>
+      <c r="B68" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="74">
+        <v>200000</v>
+      </c>
+      <c r="D68" s="74"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="49"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="56"/>
+      <c r="B69" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="74">
+        <f>C68-C71-C72</f>
+        <v>190000</v>
+      </c>
+      <c r="D69" s="74"/>
+      <c r="E69" s="39">
+        <f>C69/C67*100</f>
+        <v>120.81327274825226</v>
+      </c>
+      <c r="F69" s="49"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="49"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="56"/>
+      <c r="B70" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="71">
+        <f>C67-C69</f>
+        <v>-32732.51135583641</v>
+      </c>
+      <c r="D70" s="71"/>
+      <c r="E70" s="39">
+        <f>100-E69</f>
+        <v>-20.81327274825226</v>
+      </c>
+      <c r="F70" s="49"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="49"/>
+      <c r="R70" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="S70" s="1">
+        <f>CONVERT(R70,"m","ft")</f>
+        <v>10.498687664041995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="56"/>
+      <c r="B71" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="71">
+        <f>C68*0.03</f>
+        <v>6000</v>
+      </c>
+      <c r="D71" s="71"/>
+      <c r="E71" s="39">
+        <v>3</v>
+      </c>
+      <c r="F71" s="49"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="49"/>
+      <c r="R71" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S71" s="1">
+        <f t="shared" ref="S71:S92" si="6">CONVERT(R71,"m","ft")</f>
+        <v>7.2178477690288716</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="56"/>
+      <c r="B72" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="71">
+        <f>C68*0.02</f>
+        <v>4000</v>
+      </c>
+      <c r="D72" s="71"/>
+      <c r="E72" s="39">
+        <v>2</v>
+      </c>
+      <c r="F72" s="49"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="49"/>
+      <c r="R72" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="S72" s="1">
+        <f t="shared" si="6"/>
+        <v>13.779527559055119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="R73"/>
+      <c r="S73"/>
+    </row>
+    <row r="74" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R74" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" si="6"/>
+        <v>13.779527559055119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R75" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="S75" s="1">
+        <f t="shared" si="6"/>
+        <v>14.763779527559056</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R76" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="S76" s="1">
+        <f t="shared" si="6"/>
+        <v>13.681102362204724</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R77"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R78" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="S78" s="1">
+        <f t="shared" si="6"/>
+        <v>14.763779527559056</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R79" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="6"/>
+        <v>14.763779527559056</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R80" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="S80" s="1">
+        <f t="shared" si="6"/>
+        <v>9.514435695538058</v>
+      </c>
+    </row>
+    <row r="81" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R82" s="68">
+        <v>4.5</v>
+      </c>
+      <c r="S82" s="1">
+        <f t="shared" si="6"/>
+        <v>14.763779527559056</v>
+      </c>
+    </row>
+    <row r="83" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R83" s="69">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S83" s="1">
+        <f t="shared" si="6"/>
+        <v>14.271653543307087</v>
+      </c>
+    </row>
+    <row r="84" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R84" s="69">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="S84" s="1">
+        <f t="shared" si="6"/>
+        <v>13.877952755905515</v>
+      </c>
+    </row>
+    <row r="85" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R86" s="69">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S86" s="1">
+        <f t="shared" si="6"/>
+        <v>14.271653543307087</v>
+      </c>
+    </row>
+    <row r="87" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R87" s="69">
+        <v>1.42</v>
+      </c>
+      <c r="S87" s="1">
+        <f t="shared" si="6"/>
+        <v>4.6587926509186355</v>
+      </c>
+    </row>
+    <row r="88" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R88" s="69">
+        <v>2.95</v>
+      </c>
+      <c r="S88" s="1">
+        <f t="shared" si="6"/>
+        <v>9.6784776902887142</v>
+      </c>
+    </row>
+    <row r="89" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R90" s="69">
+        <v>1.42</v>
+      </c>
+      <c r="S90" s="1">
+        <f t="shared" si="6"/>
+        <v>4.6587926509186355</v>
+      </c>
+    </row>
+    <row r="91" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R91" s="69">
+        <v>2.9</v>
+      </c>
+      <c r="S91" s="1">
+        <f t="shared" si="6"/>
+        <v>9.514435695538058</v>
+      </c>
+    </row>
+    <row r="92" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R92" s="69">
+        <v>2.5</v>
+      </c>
+      <c r="S92" s="1">
+        <f t="shared" si="6"/>
+        <v>8.2020997375328086</v>
+      </c>
+    </row>
+    <row r="93" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="O16:U16"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U131"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="138" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <v>6.5</v>
+      </c>
+      <c r="E10" s="38">
+        <v>5</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="39">
+        <f>G16</f>
+        <v>27.992944983842065</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
+        <v>3</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39">
+        <f>PRODUCT(C11:F11)</f>
+        <v>3</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="23">
+        <f>SUM(G10:G11)</f>
+        <v>30.992944983842065</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="23">
+        <v>64.63</v>
+      </c>
+      <c r="J12" s="41">
+        <f>G12*I12</f>
+        <v>2003.0740343057125</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="41">
+        <f>0.13*G12*19284/360</f>
+        <v>215.82453788581486</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="S13" s="25"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="21"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="21"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="47">
+        <v>1</v>
+      </c>
+      <c r="D16" s="38">
+        <f>D10</f>
+        <v>6.5</v>
+      </c>
+      <c r="E16" s="38">
+        <f>E10</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G16" s="39">
+        <f>G51</f>
+        <v>27.992944983842065</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="33">
+        <f>SUM(G16)</f>
+        <v>27.992944983842065</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="33">
+        <v>4434.5200000000004</v>
+      </c>
+      <c r="J17" s="44">
+        <f>G17*I17</f>
+        <v>124135.27438974733</v>
+      </c>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="45">
+        <f>0.13*G17*(14817.6/5)</f>
+        <v>10784.494801407032</v>
+      </c>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>3</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="47">
+        <v>1</v>
+      </c>
+      <c r="D21" s="38">
+        <v>1.75</v>
+      </c>
+      <c r="E21" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="39">
+        <f t="shared" ref="G21:G25" si="0">PRODUCT(C21:F21)</f>
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="47">
+        <v>1</v>
+      </c>
+      <c r="D22" s="38">
+        <v>1</v>
+      </c>
+      <c r="E22" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G22" s="39">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="21"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="47">
+        <v>1</v>
+      </c>
+      <c r="D23" s="38">
+        <v>1</v>
+      </c>
+      <c r="E23" s="38">
+        <f>0.5/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="39">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="21"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="47">
+        <v>1</v>
+      </c>
+      <c r="D24" s="38">
+        <v>2.98</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="39">
+        <f t="shared" si="0"/>
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="47">
+        <v>1</v>
+      </c>
+      <c r="D25" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="E25" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="39">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="33">
+        <f>SUM(G21:G25)</f>
+        <v>0.21575</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="33">
+        <v>10634.5</v>
+      </c>
+      <c r="J26" s="44">
+        <f>G26*I26</f>
+        <v>2294.3933750000001</v>
+      </c>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="45">
+        <f>0.13*G26*((114907.3+6135.3)/15)</f>
+        <v>226.32948823333334</v>
+      </c>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="63">
+        <v>4</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="47">
+        <v>1</v>
+      </c>
+      <c r="D30" s="38">
+        <v>1.75</v>
+      </c>
+      <c r="E30" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="38">
+        <f>(0.65+0.5)/2-0.05</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="G30" s="39">
+        <f t="shared" ref="G30:G34" si="1">PRODUCT(C30:F30)</f>
+        <v>0.45937499999999992</v>
+      </c>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="47">
+        <v>1</v>
+      </c>
+      <c r="D31" s="38">
+        <v>1</v>
+      </c>
+      <c r="E31" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="38">
+        <f>(1.15+1)/2-0.05</f>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G31" s="39">
+        <f t="shared" si="1"/>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="47">
+        <v>1</v>
+      </c>
+      <c r="D32" s="38">
+        <v>1</v>
+      </c>
+      <c r="E32" s="38">
+        <f>0.5/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="38">
+        <f>(1+0.85)/2-0.05</f>
+        <v>0.875</v>
+      </c>
+      <c r="G32" s="39">
+        <f t="shared" si="1"/>
+        <v>0.21875</v>
+      </c>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="47">
+        <v>1</v>
+      </c>
+      <c r="D33" s="38">
+        <v>2.98</v>
+      </c>
+      <c r="E33" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="38">
+        <f>(0.6)-0.05</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="G33" s="39">
+        <f t="shared" si="1"/>
+        <v>0.8194999999999999</v>
+      </c>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="21"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="19">
-        <f>TRUNC(D33/0.15,0)</f>
-        <v>42</v>
-      </c>
-      <c r="D34" s="20">
-        <f>E10-0.1</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E34" s="21">
+      <c r="B34" s="37"/>
+      <c r="C34" s="47">
+        <v>1</v>
+      </c>
+      <c r="D34" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="E34" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="38">
+        <f>(0.7+0.75)/2-0.05</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="G34" s="39">
+        <f t="shared" si="1"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="33">
+        <f>SUM(G30:G34)</f>
+        <v>2.8201249999999995</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="33">
+        <v>9709.43</v>
+      </c>
+      <c r="J35" s="44">
+        <f>G35*I35</f>
+        <v>27381.806278749995</v>
+      </c>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="45">
+        <f>0.13*G35*((27092.1)/5)</f>
+        <v>1986.4808213249999</v>
+      </c>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
+        <v>5</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="19">
+        <v>25</v>
+      </c>
+      <c r="D39" s="20">
+        <f>22.25/3.281</f>
+        <v>6.7814690643096611</v>
+      </c>
+      <c r="E39" s="21">
         <f>10*10/162</f>
         <v>0.61728395061728392</v>
       </c>
-      <c r="F34" s="21">
-        <f>PRODUCT(C34:E34)</f>
-        <v>127.03703703703704</v>
-      </c>
-      <c r="G34" s="68">
-        <f>F34/1000</f>
-        <v>0.12703703703703703</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="21"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="23">
-        <f>SUM(G33:G34)</f>
-        <v>0.25345679012345679</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I35" s="23">
-        <v>124140</v>
-      </c>
-      <c r="J35" s="42">
-        <f>G35*I35</f>
-        <v>31464.125925925924</v>
-      </c>
-      <c r="K35" s="21"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="42">
-        <f>0.13*G35*110960</f>
-        <v>3656.0635061728399</v>
-      </c>
-      <c r="K36" s="21"/>
-    </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="1:19" ht="69" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
-        <v>6</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="38" t="str">
-        <f>B10</f>
-        <v>-for road</v>
-      </c>
-      <c r="C39" s="48">
-        <v>1</v>
-      </c>
-      <c r="D39" s="39">
-        <f>D10</f>
-        <v>6.5</v>
-      </c>
-      <c r="E39" s="39">
-        <f>E10</f>
-        <v>5</v>
-      </c>
-      <c r="F39" s="39">
-        <v>0.15</v>
-      </c>
-      <c r="G39" s="40">
-        <f>PRODUCT(C39:F39)</f>
-        <v>4.875</v>
-      </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
+      <c r="F39" s="21">
+        <f>PRODUCT(C39:E39)</f>
+        <v>104.65230037514908</v>
+      </c>
+      <c r="G39" s="67">
+        <f>F39/1000</f>
+        <v>0.10465230037514908</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="41"/>
       <c r="K39" s="21"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="38" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="19">
         <v>42</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="34">
-        <f>SUM(G39:G39)</f>
-        <v>4.875</v>
-      </c>
-      <c r="H40" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="34">
-        <v>11588.17</v>
-      </c>
-      <c r="J40" s="45">
-        <f>G40*I40</f>
-        <v>56492.328750000001</v>
-      </c>
-      <c r="K40" s="37"/>
+      <c r="D40" s="20">
+        <f>12.75/3.281</f>
+        <v>3.8860103626943006</v>
+      </c>
+      <c r="E40" s="21">
+        <f>10*10/162</f>
+        <v>0.61728395061728392</v>
+      </c>
+      <c r="F40" s="21">
+        <f>PRODUCT(C40:E40)</f>
+        <v>100.74841681059297</v>
+      </c>
+      <c r="G40" s="67">
+        <f>F40/1000</f>
+        <v>0.10074841681059298</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="38" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="46">
-        <f>0.13*G40*(128662.2+6685.5)/15</f>
-        <v>5718.4403250000014</v>
-      </c>
-      <c r="K41" s="37"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="23">
+        <f>SUM(G39:G40)</f>
+        <v>0.20540071718574204</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="23">
+        <v>124140</v>
+      </c>
+      <c r="J41" s="41">
+        <f>G41*I41</f>
+        <v>25498.445031438016</v>
+      </c>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="37"/>
-    </row>
-    <row r="43" spans="1:19" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
-        <v>7</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>63</v>
-      </c>
+      <c r="A42" s="18"/>
+      <c r="B42" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="41">
+        <f>0.13*G41*110960</f>
+        <v>2962.8642652608919</v>
+      </c>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="19"/>
       <c r="D43" s="20"/>
       <c r="E43" s="21"/>
@@ -4692,227 +6877,280 @@
       <c r="G43" s="23"/>
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="42"/>
+      <c r="J43" s="41"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="19">
-        <v>1</v>
-      </c>
-      <c r="D44" s="39">
-        <v>3</v>
-      </c>
-      <c r="E44" s="39">
-        <v>1</v>
-      </c>
-      <c r="F44" s="39">
-        <v>1</v>
-      </c>
-      <c r="G44" s="40">
-        <f t="shared" ref="G44" si="0">PRODUCT(C44:F44)</f>
-        <v>3</v>
-      </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
+    <row r="44" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
+        <v>6</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
       <c r="J44" s="41"/>
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
-      <c r="B45" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="23">
-        <f>SUM(G44:G44)</f>
-        <v>3</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" s="23">
-        <v>6152.23</v>
-      </c>
-      <c r="J45" s="42">
-        <f>G45*I45</f>
-        <v>18456.689999999999</v>
-      </c>
+      <c r="B45" s="37" t="str">
+        <f>B10</f>
+        <v>-for road</v>
+      </c>
+      <c r="C45" s="47">
+        <v>1</v>
+      </c>
+      <c r="D45" s="38">
+        <v>3.2</v>
+      </c>
+      <c r="E45" s="38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F45" s="38">
+        <v>4.2</v>
+      </c>
+      <c r="G45" s="39">
+        <f>SQRT(((SUM(D45:F45))/2)*(((SUM(D45:F45))/2)-D45)*(((SUM(D45:F45))/2)-E45)*(((SUM(D45:F45))/2)-F45))</f>
+        <v>3.4613292244454326</v>
+      </c>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
       <c r="K45" s="21"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
-      <c r="B46" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="42">
-        <f>0.13*G45*26798.3/6</f>
-        <v>1741.8895</v>
-      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="47">
+        <v>1</v>
+      </c>
+      <c r="D46" s="38">
+        <v>4.2</v>
+      </c>
+      <c r="E46" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="F46" s="38">
+        <v>4.17</v>
+      </c>
+      <c r="G46" s="39">
+        <f t="shared" ref="G46:G50" si="2">SQRT(((SUM(D46:F46))/2)*(((SUM(D46:F46))/2)-D46)*(((SUM(D46:F46))/2)-E46)*(((SUM(D46:F46))/2)-F46))</f>
+        <v>7.939398980676998</v>
+      </c>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="21"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="42"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E47" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="F47" s="38">
+        <v>2.9</v>
+      </c>
+      <c r="G47" s="39">
+        <f t="shared" si="2"/>
+        <v>6.176982981197213</v>
+      </c>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
       <c r="K47" s="21"/>
-    </row>
-    <row r="48" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="18">
-        <v>8</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="42"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="47">
+        <v>1</v>
+      </c>
+      <c r="D48" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E48" s="38">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F48" s="38">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G48" s="39">
+        <f t="shared" si="2"/>
+        <v>8.2154622657523042</v>
+      </c>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
       <c r="K48" s="21"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
-      <c r="B49" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="19">
-        <v>1</v>
-      </c>
-      <c r="D49" s="39">
-        <v>3</v>
-      </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39">
-        <v>2</v>
-      </c>
-      <c r="G49" s="40">
-        <f t="shared" ref="G49" si="1">PRODUCT(C49:F49)</f>
-        <v>6</v>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="47">
+        <v>1</v>
+      </c>
+      <c r="D49" s="38">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E49" s="38">
+        <v>1.42</v>
+      </c>
+      <c r="F49" s="38">
+        <v>2.95</v>
+      </c>
+      <c r="G49" s="39">
+        <f t="shared" si="2"/>
+        <v>0.42513461397538072</v>
+      </c>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
       <c r="K49" s="21"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
-      <c r="B50" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="23">
-        <f>SUM(G49:G49)</f>
-        <v>6</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I50" s="23">
-        <v>161.41999999999999</v>
-      </c>
-      <c r="J50" s="42">
-        <f>G50*I50</f>
-        <v>968.52</v>
-      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="47">
+        <v>1</v>
+      </c>
+      <c r="D50" s="38">
+        <v>1.42</v>
+      </c>
+      <c r="E50" s="38">
+        <v>2.9</v>
+      </c>
+      <c r="F50" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="G50" s="39">
+        <f t="shared" si="2"/>
+        <v>1.7746369177947365</v>
+      </c>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
       <c r="K50" s="21"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="38" t="s">
+      <c r="A51" s="40"/>
+      <c r="B51" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="42">
-        <f>0.13*G50*45360/300</f>
-        <v>117.93600000000001</v>
-      </c>
-      <c r="K51" s="21"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="33">
+        <f>SUM(G45:G50)</f>
+        <v>27.992944983842065</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="33">
+        <v>11588.17</v>
+      </c>
+      <c r="J51" s="44">
+        <f>G51*I51</f>
+        <v>324387.00527340913</v>
+      </c>
+      <c r="K51" s="36"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="21"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="45">
+        <f>0.13*G51*(128662.2+6685.5)/15</f>
+        <v>32836.099571509534</v>
+      </c>
+      <c r="K52" s="36"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18">
-        <v>9</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="19">
-        <v>1</v>
-      </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="35">
-        <f t="shared" ref="G53" si="2">PRODUCT(C53:F53)</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" s="23">
-        <v>500</v>
-      </c>
-      <c r="J53" s="35">
-        <f>G53*I53</f>
-        <v>500</v>
-      </c>
-      <c r="K53" s="21"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-    </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="24"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="36"/>
+    </row>
+    <row r="54" spans="1:19" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="18">
+        <v>7</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="C54" s="19"/>
       <c r="D54" s="20"/>
       <c r="E54" s="21"/>
@@ -4920,249 +7158,645 @@
       <c r="G54" s="23"/>
       <c r="H54" s="22"/>
       <c r="I54" s="23"/>
-      <c r="J54" s="42"/>
+      <c r="J54" s="41"/>
       <c r="K54" s="21"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="1">
+    </row>
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="19">
+        <v>1</v>
+      </c>
+      <c r="D55" s="38">
+        <v>3</v>
+      </c>
+      <c r="E55" s="38">
+        <v>1</v>
+      </c>
+      <c r="F55" s="38">
+        <v>1</v>
+      </c>
+      <c r="G55" s="39">
+        <f t="shared" ref="G55" si="3">PRODUCT(C55:F55)</f>
+        <v>3</v>
+      </c>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="B56" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="23">
+        <f>SUM(G55:G55)</f>
+        <v>3</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" s="23">
+        <v>6152.23</v>
+      </c>
+      <c r="J56" s="41">
+        <f>G56*I56</f>
+        <v>18456.689999999999</v>
+      </c>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="B57" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="41">
+        <f>0.13*G56*26798.3/6</f>
+        <v>1741.8895</v>
+      </c>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="18">
+        <v>8</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="19">
+        <v>1</v>
+      </c>
+      <c r="D60" s="38">
+        <v>3</v>
+      </c>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38">
+        <v>2</v>
+      </c>
+      <c r="G60" s="39">
+        <f t="shared" ref="G60:G61" si="4">PRODUCT(C60:F60)</f>
+        <v>6</v>
+      </c>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="19">
+        <v>1</v>
+      </c>
+      <c r="D61" s="38">
+        <v>3</v>
+      </c>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38">
+        <v>1</v>
+      </c>
+      <c r="G61" s="39">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="18"/>
+      <c r="B62" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="23">
+        <f>SUM(G60:G61)</f>
+        <v>9</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="23">
+        <v>161.41999999999999</v>
+      </c>
+      <c r="J62" s="41">
+        <f>G62*I62</f>
+        <v>1452.78</v>
+      </c>
+      <c r="K62" s="21"/>
+    </row>
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="18"/>
+      <c r="B63" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="41">
+        <f>0.13*G62*45360/300</f>
+        <v>176.904</v>
+      </c>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="18">
+        <v>9</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="19">
+        <v>1</v>
+      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="34">
+        <f t="shared" ref="G65" si="5">PRODUCT(C65:F65)</f>
+        <v>1</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="23">
+        <v>500</v>
+      </c>
+      <c r="J65" s="34">
+        <f>G65*I65</f>
+        <v>500</v>
+      </c>
+      <c r="K65" s="21"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+    </row>
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="18"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="21"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="1">
         <f>2.4*3.281</f>
         <v>7.8743999999999996</v>
       </c>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="47" t="s">
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="40"/>
+      <c r="B67" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42">
-        <f>SUM(J10:J53)</f>
-        <v>226282.20784109872</v>
-      </c>
-      <c r="K55" s="37"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="59"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="58"/>
-    </row>
-    <row r="57" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="29" t="s">
+      <c r="C67" s="47"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41">
+        <f>SUM(J10:J65)</f>
+        <v>577040.35536827182</v>
+      </c>
+      <c r="K67" s="36"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="58"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="57"/>
+    </row>
+    <row r="69" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="50"/>
+      <c r="B69" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="83">
-        <f>J55</f>
-        <v>226282.20784109872</v>
-      </c>
-      <c r="D57" s="83"/>
-      <c r="E57" s="40">
+      <c r="C69" s="71">
+        <f>J67</f>
+        <v>577040.35536827182</v>
+      </c>
+      <c r="D69" s="71"/>
+      <c r="E69" s="39">
         <v>100</v>
       </c>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="56"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="57"/>
-      <c r="B58" s="29" t="s">
+      <c r="F69" s="51"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="55"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="56"/>
+      <c r="B70" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="86">
+      <c r="C70" s="74">
         <v>200000</v>
       </c>
-      <c r="D58" s="86"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="50"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="57"/>
-      <c r="B59" s="29" t="s">
+      <c r="D70" s="74"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="49"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="56"/>
+      <c r="B71" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="86">
-        <f>C58-C61-C62</f>
+      <c r="C71" s="74">
+        <f>C70-C73-C74</f>
         <v>190000</v>
       </c>
-      <c r="D59" s="86"/>
-      <c r="E59" s="40">
-        <f>C59/C57*100</f>
-        <v>83.96594757172555</v>
-      </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="50"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="57"/>
-      <c r="B60" s="29" t="s">
+      <c r="D71" s="74"/>
+      <c r="E71" s="39">
+        <f>C71/C69*100</f>
+        <v>32.926639919098982</v>
+      </c>
+      <c r="F71" s="49"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="49"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="56"/>
+      <c r="B72" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="83">
-        <f>C57-C59</f>
-        <v>36282.207841098716</v>
-      </c>
-      <c r="D60" s="83"/>
-      <c r="E60" s="40">
-        <f>100-E59</f>
-        <v>16.03405242827445</v>
-      </c>
-      <c r="F60" s="50"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="50"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
-      <c r="B61" s="29" t="s">
+      <c r="C72" s="71">
+        <f>C69-C71</f>
+        <v>387040.35536827182</v>
+      </c>
+      <c r="D72" s="71"/>
+      <c r="E72" s="39">
+        <f>100-E71</f>
+        <v>67.073360080901011</v>
+      </c>
+      <c r="F72" s="49"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="49"/>
+      <c r="R72" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="S72" s="1">
+        <f>CONVERT(R72,"m","ft")</f>
+        <v>10.498687664041995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="56"/>
+      <c r="B73" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="83">
-        <f>C58*0.03</f>
+      <c r="C73" s="71">
+        <f>C70*0.03</f>
         <v>6000</v>
       </c>
-      <c r="D61" s="83"/>
-      <c r="E61" s="40">
+      <c r="D73" s="71"/>
+      <c r="E73" s="39">
         <v>3</v>
       </c>
-      <c r="F61" s="50"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="50"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="57"/>
-      <c r="B62" s="29" t="s">
+      <c r="F73" s="49"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="49"/>
+      <c r="R73" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S73" s="1">
+        <f t="shared" ref="S73:S94" si="6">CONVERT(R73,"m","ft")</f>
+        <v>7.2178477690288716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="56"/>
+      <c r="B74" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="83">
-        <f>C58*0.02</f>
+      <c r="C74" s="71">
+        <f>C70*0.02</f>
         <v>4000</v>
       </c>
-      <c r="D62" s="83"/>
-      <c r="E62" s="40">
+      <c r="D74" s="71"/>
+      <c r="E74" s="39">
         <v>2</v>
       </c>
-      <c r="F62" s="50"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="50"/>
-    </row>
-    <row r="63" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-    </row>
-    <row r="64" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="49"/>
+      <c r="R74" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" si="6"/>
+        <v>13.779527559055119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="R75"/>
+      <c r="S75"/>
+    </row>
+    <row r="76" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R76" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="S76" s="1">
+        <f t="shared" si="6"/>
+        <v>13.779527559055119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R77" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="S77" s="1">
+        <f t="shared" si="6"/>
+        <v>14.763779527559056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R78" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="S78" s="1">
+        <f t="shared" si="6"/>
+        <v>13.681102362204724</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R79"/>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R80" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="S80" s="1">
+        <f t="shared" si="6"/>
+        <v>14.763779527559056</v>
+      </c>
+    </row>
+    <row r="81" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R81" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="S81" s="1">
+        <f t="shared" si="6"/>
+        <v>14.763779527559056</v>
+      </c>
+    </row>
+    <row r="82" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R82" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="S82" s="1">
+        <f t="shared" si="6"/>
+        <v>9.514435695538058</v>
+      </c>
+    </row>
+    <row r="83" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R84" s="68">
+        <v>4.5</v>
+      </c>
+      <c r="S84" s="1">
+        <f t="shared" si="6"/>
+        <v>14.763779527559056</v>
+      </c>
+    </row>
+    <row r="85" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R85" s="69">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S85" s="1">
+        <f t="shared" si="6"/>
+        <v>14.271653543307087</v>
+      </c>
+    </row>
+    <row r="86" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R86" s="69">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="S86" s="1">
+        <f t="shared" si="6"/>
+        <v>13.877952755905515</v>
+      </c>
+    </row>
+    <row r="87" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R88" s="69">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S88" s="1">
+        <f t="shared" si="6"/>
+        <v>14.271653543307087</v>
+      </c>
+    </row>
+    <row r="89" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R89" s="69">
+        <v>1.42</v>
+      </c>
+      <c r="S89" s="1">
+        <f t="shared" si="6"/>
+        <v>4.6587926509186355</v>
+      </c>
+    </row>
+    <row r="90" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R90" s="69">
+        <v>2.95</v>
+      </c>
+      <c r="S90" s="1">
+        <f t="shared" si="6"/>
+        <v>9.6784776902887142</v>
+      </c>
+    </row>
+    <row r="91" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R92" s="69">
+        <v>1.42</v>
+      </c>
+      <c r="S92" s="1">
+        <f t="shared" si="6"/>
+        <v>4.6587926509186355</v>
+      </c>
+    </row>
+    <row r="93" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R93" s="69">
+        <v>2.9</v>
+      </c>
+      <c r="S93" s="1">
+        <f t="shared" si="6"/>
+        <v>9.514435695538058</v>
+      </c>
+    </row>
+    <row r="94" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R94" s="69">
+        <v>2.5</v>
+      </c>
+      <c r="S94" s="1">
+        <f t="shared" si="6"/>
+        <v>8.2020997375328086</v>
+      </c>
+    </row>
+    <row r="95" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="18:19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="O15:U15"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
